--- a/Music Data.xlsx
+++ b/Music Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itlabs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbrocker/Documents/GitHub/348SlideDecks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5983B8FA-99AD-4E75-84FB-36EBF1377B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2AD19-D937-C542-A567-1C54CC7B3802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artists" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="138">
   <si>
-    <t>Who is your favorite artist?</t>
-  </si>
-  <si>
-    <t>Who is your second favorite artist?</t>
-  </si>
-  <si>
-    <t>Who is your least favorite artist?</t>
-  </si>
-  <si>
     <t>Morgan Wallen</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>Kate Bush</t>
   </si>
   <si>
-    <t>the microphones</t>
-  </si>
-  <si>
     <t>nicole dollanganger</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
     <t>Drake</t>
   </si>
   <si>
-    <t xml:space="preserve">a boogie wit da hoodie </t>
-  </si>
-  <si>
     <t xml:space="preserve">billie eilish </t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>Chapell Roan</t>
   </si>
   <si>
-    <t xml:space="preserve">brent faiyaz </t>
-  </si>
-  <si>
     <t xml:space="preserve">daniel caesar </t>
   </si>
   <si>
@@ -449,6 +431,24 @@
   </si>
   <si>
     <t>Social</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>sec_favorite</t>
+  </si>
+  <si>
+    <t>least_fav</t>
+  </si>
+  <si>
+    <t>A Boogie Wit da Hoodie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent Faiyaz </t>
+  </si>
+  <si>
+    <t>The Microphones</t>
   </si>
 </sst>
 </file>
@@ -533,9 +533,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -573,7 +573,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -679,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,268 +831,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1105,9 +1105,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1 B1 C1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1115,356 +1112,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BD2252-5EF4-4150-8924-6F0D5ED2543C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C19" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>109</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
         <v>113</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>114</v>
       </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
         <v>118</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>119</v>
       </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>123</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>127</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>130</v>
       </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C31" t="s">
         <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
